--- a/SammyShuck_FinalProject/OpenGL_FinalProject_Coordinates.xlsx
+++ b/SammyShuck_FinalProject/OpenGL_FinalProject_Coordinates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sammy\Google Drive\_SNHU_Course_Work\BSCS-Computer_Science\CS-330-J2956_Computer_Graphic_and_Visualization\code\cs330\SammyShuck_FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B4BC0D-3980-4365-B2C7-4D2B2058B8FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAB3A1F-121A-4268-9E04-C8767DCD73A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17145" yWindow="2040" windowWidth="16035" windowHeight="10035" xr2:uid="{B5903B6B-09BC-4EBB-A095-2064D8D8038A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="84">
   <si>
     <t>table top</t>
   </si>
@@ -268,6 +268,24 @@
   </si>
   <si>
     <t>0.4610f,0.2110f,-0.5000f</t>
+  </si>
+  <si>
+    <t>0,1,3  2,3,0</t>
+  </si>
+  <si>
+    <t>4,5,7  6,7,4</t>
+  </si>
+  <si>
+    <t>4,5,1  0,1,4</t>
+  </si>
+  <si>
+    <t>2,3 7  6,7,2</t>
+  </si>
+  <si>
+    <t>4,0,2   6,2,4</t>
+  </si>
+  <si>
+    <t>5,1,3  7,3,5</t>
   </si>
 </sst>
 </file>
@@ -832,7 +850,7 @@
   <dimension ref="A1:F130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D8" sqref="C6:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,19 +858,20 @@
     <col min="1" max="1" width="0.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" style="16" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="25" style="16" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="2"/>
+    <col min="5" max="5" width="11.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
     <col min="7" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
@@ -862,8 +881,11 @@
       <c r="D3" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
       <c r="C4" s="10" t="s">
         <v>19</v>
@@ -872,7 +894,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
@@ -882,8 +904,11 @@
       <c r="D5" s="13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="1" t="s">
         <v>19</v>
@@ -892,7 +917,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>3</v>
       </c>
@@ -902,8 +927,11 @@
       <c r="D7" s="17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="1" t="s">
         <v>19</v>
@@ -912,7 +940,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
@@ -922,8 +950,11 @@
       <c r="D9" s="13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
       <c r="C10" s="20" t="s">
         <v>20</v>
@@ -932,7 +963,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>5</v>
       </c>
@@ -942,8 +973,11 @@
       <c r="D11" s="13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
       <c r="C12" s="8" t="s">
         <v>16</v>
@@ -952,7 +986,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>6</v>
       </c>
@@ -962,8 +996,11 @@
       <c r="D13" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
       <c r="C14" s="21" t="s">
         <v>19</v>
@@ -972,12 +1009,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>7</v>
       </c>

--- a/SammyShuck_FinalProject/OpenGL_FinalProject_Coordinates.xlsx
+++ b/SammyShuck_FinalProject/OpenGL_FinalProject_Coordinates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sammy\Google Drive\_SNHU_Course_Work\BSCS-Computer_Science\CS-330-J2956_Computer_Graphic_and_Visualization\code\cs330\SammyShuck_FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAB3A1F-121A-4268-9E04-C8767DCD73A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EB0977-1412-493B-BD0C-2F219B190235}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17145" yWindow="2040" windowWidth="16035" windowHeight="10035" xr2:uid="{B5903B6B-09BC-4EBB-A095-2064D8D8038A}"/>
+    <workbookView xWindow="-4485" yWindow="2790" windowWidth="16035" windowHeight="10035" xr2:uid="{B5903B6B-09BC-4EBB-A095-2064D8D8038A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="84">
   <si>
     <t>table top</t>
   </si>
@@ -850,7 +850,7 @@
   <dimension ref="A1:F130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="C6:D8"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,7 +1021,7 @@
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
         <v>1</v>
       </c>
@@ -1031,8 +1031,11 @@
       <c r="D17" s="9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
       <c r="C18" s="10" t="s">
         <v>22</v>
@@ -1041,7 +1044,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>2</v>
       </c>
@@ -1051,8 +1054,11 @@
       <c r="D19" s="13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
       <c r="C20" s="1" t="s">
         <v>24</v>
@@ -1061,7 +1067,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>3</v>
       </c>
@@ -1071,8 +1077,11 @@
       <c r="D21" s="17" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
       <c r="C22" s="1" t="s">
         <v>24</v>
@@ -1081,7 +1090,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>4</v>
       </c>
@@ -1091,8 +1100,11 @@
       <c r="D23" s="13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="7"/>
       <c r="C24" s="20" t="s">
         <v>26</v>
@@ -1101,7 +1113,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>5</v>
       </c>
@@ -1111,8 +1123,11 @@
       <c r="D25" s="13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
       <c r="C26" s="8" t="s">
         <v>21</v>
@@ -1121,7 +1136,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>6</v>
       </c>
@@ -1131,8 +1146,11 @@
       <c r="D27" s="14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E27" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
       <c r="C28" s="21" t="s">
         <v>22</v>
@@ -1141,19 +1159,19 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
         <v>1</v>
       </c>
@@ -1163,8 +1181,11 @@
       <c r="D31" s="9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
       <c r="C32" s="10" t="s">
         <v>35</v>
@@ -1173,7 +1194,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
         <v>2</v>
       </c>
@@ -1183,8 +1204,11 @@
       <c r="D33" s="13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="7"/>
       <c r="C34" s="1" t="s">
         <v>33</v>
@@ -1193,7 +1217,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
         <v>3</v>
       </c>
@@ -1203,8 +1227,11 @@
       <c r="D35" s="17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="7"/>
       <c r="C36" s="1" t="s">
         <v>33</v>
@@ -1213,7 +1240,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
         <v>4</v>
       </c>
@@ -1223,8 +1250,11 @@
       <c r="D37" s="13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="7"/>
       <c r="C38" s="20" t="s">
         <v>37</v>
@@ -1233,7 +1263,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
         <v>5</v>
       </c>
@@ -1243,8 +1273,11 @@
       <c r="D39" s="13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="7"/>
       <c r="C40" s="8" t="s">
         <v>34</v>
@@ -1253,7 +1286,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
         <v>6</v>
       </c>
@@ -1263,8 +1296,11 @@
       <c r="D41" s="14" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="42" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E41" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="3"/>
       <c r="C42" s="21" t="s">
         <v>35</v>
@@ -1273,19 +1309,19 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="6"/>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="s">
         <v>1</v>
       </c>
@@ -1295,8 +1331,11 @@
       <c r="D45" s="9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="7"/>
       <c r="C46" s="10" t="s">
         <v>24</v>
@@ -1305,7 +1344,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" s="7" t="s">
         <v>2</v>
       </c>
@@ -1315,8 +1354,11 @@
       <c r="D47" s="13" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
       <c r="C48" s="1" t="s">
         <v>35</v>
@@ -1325,7 +1367,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="7" t="s">
         <v>3</v>
       </c>
@@ -1335,8 +1377,11 @@
       <c r="D49" s="17" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
       <c r="C50" s="1" t="s">
         <v>35</v>
@@ -1345,7 +1390,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="7" t="s">
         <v>4</v>
       </c>
@@ -1355,8 +1400,11 @@
       <c r="D51" s="13" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="7"/>
       <c r="C52" s="20" t="s">
         <v>43</v>
@@ -1365,7 +1413,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="7" t="s">
         <v>5</v>
       </c>
@@ -1375,8 +1423,11 @@
       <c r="D53" s="13" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="7"/>
       <c r="C54" s="8" t="s">
         <v>23</v>
@@ -1385,7 +1436,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
         <v>6</v>
       </c>
@@ -1395,8 +1446,11 @@
       <c r="D55" s="14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="56" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E55" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="3"/>
       <c r="C56" s="21" t="s">
         <v>24</v>
@@ -1405,19 +1459,19 @@
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B58" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="6"/>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" s="7" t="s">
         <v>1</v>
       </c>
@@ -1427,8 +1481,11 @@
       <c r="D59" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E59" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" s="7"/>
       <c r="C60" s="10" t="s">
         <v>39</v>
@@ -1437,7 +1494,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61" s="7" t="s">
         <v>2</v>
       </c>
@@ -1447,8 +1504,11 @@
       <c r="D61" s="13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62" s="7"/>
       <c r="C62" s="1" t="s">
         <v>41</v>
@@ -1457,7 +1517,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63" s="7" t="s">
         <v>3</v>
       </c>
@@ -1467,8 +1527,11 @@
       <c r="D63" s="17" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E63" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" s="7"/>
       <c r="C64" s="1" t="s">
         <v>41</v>
@@ -1477,7 +1540,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="7" t="s">
         <v>4</v>
       </c>
@@ -1487,8 +1550,11 @@
       <c r="D65" s="13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E65" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" s="7"/>
       <c r="C66" s="20" t="s">
         <v>28</v>
@@ -1497,7 +1563,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67" s="7" t="s">
         <v>5</v>
       </c>
@@ -1507,8 +1573,11 @@
       <c r="D67" s="13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E67" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68" s="7"/>
       <c r="C68" s="8" t="s">
         <v>38</v>
@@ -1517,7 +1586,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69" s="7" t="s">
         <v>6</v>
       </c>
@@ -1527,8 +1596,11 @@
       <c r="D69" s="14" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="70" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E69" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="3"/>
       <c r="C70" s="21" t="s">
         <v>39</v>
@@ -1537,19 +1609,19 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B72" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="6"/>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B73" s="7" t="s">
         <v>1</v>
       </c>
@@ -1559,8 +1631,11 @@
       <c r="D73" s="9" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E73" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B74" s="7"/>
       <c r="C74" s="10" t="s">
         <v>55</v>
@@ -1569,7 +1644,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B75" s="7" t="s">
         <v>2</v>
       </c>
@@ -1579,8 +1654,11 @@
       <c r="D75" s="13" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E75" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B76" s="7"/>
       <c r="C76" s="1" t="s">
         <v>57</v>
@@ -1589,7 +1667,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B77" s="7" t="s">
         <v>3</v>
       </c>
@@ -1599,8 +1677,11 @@
       <c r="D77" s="17" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E77" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B78" s="7"/>
       <c r="C78" s="1" t="s">
         <v>57</v>
@@ -1609,7 +1690,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B79" s="7" t="s">
         <v>4</v>
       </c>
@@ -1619,8 +1700,11 @@
       <c r="D79" s="13" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E79" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B80" s="7"/>
       <c r="C80" s="20" t="s">
         <v>59</v>
@@ -1629,7 +1713,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" s="7" t="s">
         <v>5</v>
       </c>
@@ -1639,8 +1723,11 @@
       <c r="D81" s="13" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E81" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" s="7"/>
       <c r="C82" s="8" t="s">
         <v>54</v>
@@ -1649,7 +1736,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" s="7" t="s">
         <v>6</v>
       </c>
@@ -1659,8 +1746,11 @@
       <c r="D83" s="14" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="84" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E83" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B84" s="3"/>
       <c r="C84" s="21" t="s">
         <v>55</v>
@@ -1669,19 +1759,19 @@
         <v>59</v>
       </c>
     </row>
-    <row r="85" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
     </row>
-    <row r="86" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B86" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="6"/>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87" s="7" t="s">
         <v>1</v>
       </c>
@@ -1691,8 +1781,11 @@
       <c r="D87" s="9" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E87" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" s="7"/>
       <c r="C88" s="10" t="s">
         <v>49</v>
@@ -1701,7 +1794,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89" s="7" t="s">
         <v>2</v>
       </c>
@@ -1711,8 +1804,11 @@
       <c r="D89" s="13" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E89" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90" s="7"/>
       <c r="C90" s="1" t="s">
         <v>53</v>
@@ -1721,7 +1817,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91" s="7" t="s">
         <v>3</v>
       </c>
@@ -1731,8 +1827,11 @@
       <c r="D91" s="17" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E91" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B92" s="7"/>
       <c r="C92" s="1" t="s">
         <v>53</v>
@@ -1741,7 +1840,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B93" s="7" t="s">
         <v>4</v>
       </c>
@@ -1751,8 +1850,11 @@
       <c r="D93" s="13" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E93" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B94" s="7"/>
       <c r="C94" s="20" t="s">
         <v>47</v>
@@ -1761,7 +1863,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B95" s="7" t="s">
         <v>5</v>
       </c>
@@ -1771,8 +1873,11 @@
       <c r="D95" s="13" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E95" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B96" s="7"/>
       <c r="C96" s="8" t="s">
         <v>48</v>
@@ -1781,7 +1886,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B97" s="7" t="s">
         <v>6</v>
       </c>
@@ -1791,8 +1896,11 @@
       <c r="D97" s="14" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="98" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E97" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B98" s="3"/>
       <c r="C98" s="21" t="s">
         <v>49</v>
@@ -1801,19 +1909,19 @@
         <v>47</v>
       </c>
     </row>
-    <row r="99" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
     </row>
-    <row r="100" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B100" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="6"/>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B101" s="7" t="s">
         <v>1</v>
       </c>
@@ -1823,8 +1931,11 @@
       <c r="D101" s="9" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E101" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B102" s="7"/>
       <c r="C102" s="10" t="s">
         <v>63</v>
@@ -1833,7 +1944,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B103" s="7" t="s">
         <v>2</v>
       </c>
@@ -1843,8 +1954,11 @@
       <c r="D103" s="13" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E103" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B104" s="7"/>
       <c r="C104" s="1" t="s">
         <v>67</v>
@@ -1853,7 +1967,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B105" s="7" t="s">
         <v>3</v>
       </c>
@@ -1863,8 +1977,11 @@
       <c r="D105" s="17" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E105" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B106" s="7"/>
       <c r="C106" s="1" t="s">
         <v>67</v>
@@ -1873,7 +1990,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B107" s="7" t="s">
         <v>4</v>
       </c>
@@ -1883,8 +2000,11 @@
       <c r="D107" s="13" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E107" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B108" s="7"/>
       <c r="C108" s="20" t="s">
         <v>64</v>
@@ -1893,7 +2013,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B109" s="7" t="s">
         <v>5</v>
       </c>
@@ -1903,8 +2023,11 @@
       <c r="D109" s="13" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E109" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B110" s="7"/>
       <c r="C110" s="8" t="s">
         <v>62</v>
@@ -1913,7 +2036,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B111" s="7" t="s">
         <v>6</v>
       </c>
@@ -1923,8 +2046,11 @@
       <c r="D111" s="14" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="112" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E111" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B112" s="3"/>
       <c r="C112" s="21" t="s">
         <v>63</v>
@@ -1933,19 +2059,19 @@
         <v>64</v>
       </c>
     </row>
-    <row r="113" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
     </row>
-    <row r="114" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B114" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C114" s="5"/>
       <c r="D114" s="6"/>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B115" s="7" t="s">
         <v>1</v>
       </c>
@@ -1955,8 +2081,11 @@
       <c r="D115" s="9" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E115" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B116" s="7"/>
       <c r="C116" s="10" t="s">
         <v>71</v>
@@ -1965,7 +2094,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B117" s="7" t="s">
         <v>2</v>
       </c>
@@ -1975,8 +2104,11 @@
       <c r="D117" s="13" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E117" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B118" s="7"/>
       <c r="C118" s="1" t="s">
         <v>75</v>
@@ -1985,7 +2117,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B119" s="7" t="s">
         <v>3</v>
       </c>
@@ -1995,8 +2127,11 @@
       <c r="D119" s="17" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E119" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B120" s="7"/>
       <c r="C120" s="1" t="s">
         <v>75</v>
@@ -2005,7 +2140,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B121" s="7" t="s">
         <v>4</v>
       </c>
@@ -2015,8 +2150,11 @@
       <c r="D121" s="13" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E121" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B122" s="7"/>
       <c r="C122" s="20" t="s">
         <v>73</v>
@@ -2025,7 +2163,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B123" s="7" t="s">
         <v>5</v>
       </c>
@@ -2035,8 +2173,11 @@
       <c r="D123" s="13" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E123" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B124" s="7"/>
       <c r="C124" s="8" t="s">
         <v>70</v>
@@ -2045,7 +2186,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B125" s="7" t="s">
         <v>6</v>
       </c>
@@ -2055,8 +2196,11 @@
       <c r="D125" s="14" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="126" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E125" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B126" s="3"/>
       <c r="C126" s="21" t="s">
         <v>71</v>
@@ -2065,12 +2209,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="127" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>

--- a/SammyShuck_FinalProject/OpenGL_FinalProject_Coordinates.xlsx
+++ b/SammyShuck_FinalProject/OpenGL_FinalProject_Coordinates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sammy\Google Drive\_SNHU_Course_Work\BSCS-Computer_Science\CS-330-J2956_Computer_Graphic_and_Visualization\code\cs330\SammyShuck_FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EB0977-1412-493B-BD0C-2F219B190235}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D901BF2-C7D6-45F9-A465-FA83F9965146}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4485" yWindow="2790" windowWidth="16035" windowHeight="10035" xr2:uid="{B5903B6B-09BC-4EBB-A095-2064D8D8038A}"/>
+    <workbookView xWindow="6525" yWindow="2145" windowWidth="16035" windowHeight="10035" xr2:uid="{B5903B6B-09BC-4EBB-A095-2064D8D8038A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="85">
   <si>
     <t>table top</t>
   </si>
@@ -286,6 +286,9 @@
   </si>
   <si>
     <t>5,1,3  7,3,5</t>
+  </si>
+  <si>
+    <t>-0.500f,0.250f,-0.013f</t>
   </si>
 </sst>
 </file>
@@ -850,7 +853,7 @@
   <dimension ref="A1:F130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,7 +914,7 @@
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>29</v>
@@ -934,7 +937,7 @@
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>19</v>
@@ -991,7 +994,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>29</v>
